--- a/data/trans_orig/IP40A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP40A-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30ED88C0-B221-4574-8178-390E5C544DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D23B0D5F-03A1-46AF-95A5-0799474D359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FAAFCFE-29A9-459E-8B44-52170ECA73F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2DA8EE38-1191-44F3-BE45-B4B104A46B20}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="744">
   <si>
     <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2012 (Tasa respuesta: 75,94%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 5.000 euros</t>
@@ -84,2233 +84,2191 @@
     <t>5,12%</t>
   </si>
   <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>De 3.000 a 4.999 euros</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>De 2.500 a 2.999 euros</t>
+  </si>
+  <si>
+    <t>De 2.000 a 2.499 euros</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>De 1.500 a 1.999 euros</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>De 1.000 a 1.499 euros</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>De 500 a 999 euros</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>De 301 a 499 euros</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>Hasta 300 euros</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>De 3.000 a 4.999 euros</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>De 2.500 a 2.999 euros</t>
-  </si>
-  <si>
-    <t>De 2.000 a 2.499 euros</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>De 1.500 a 1.999 euros</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>De 1.000 a 1.499 euros</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>De 500 a 999 euros</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>De 301 a 499 euros</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>Hasta 300 euros</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2016 (Tasa respuesta: 78,03%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según el intervalo en el que están comprendidos los ingresos totales netos de su hogar en 2015 (Tasa respuesta: 78,03%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
     <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8170D8E-256A-4BC0-BCF7-9C3A7F42E022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC36AC70-08B8-42C4-9069-683530E15A72}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3544,10 +3502,10 @@
         <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3520,13 @@
         <v>24997</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3577,13 +3535,13 @@
         <v>15148</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -3592,13 +3550,13 @@
         <v>40145</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3571,13 @@
         <v>45872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3628,13 +3586,13 @@
         <v>40734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>121</v>
@@ -3643,13 +3601,13 @@
         <v>86606</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3622,13 @@
         <v>18446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3679,13 +3637,13 @@
         <v>23014</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -3694,13 +3652,13 @@
         <v>41460</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3673,13 @@
         <v>1985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3730,13 +3688,13 @@
         <v>1977</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3745,13 +3703,13 @@
         <v>3962</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3724,13 @@
         <v>868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3781,13 +3739,13 @@
         <v>942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3796,13 +3754,13 @@
         <v>1810</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,7 +3816,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3876,7 +3834,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3885,13 +3843,13 @@
         <v>726</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3900,13 +3858,13 @@
         <v>726</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3879,13 @@
         <v>3433</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3936,13 +3894,13 @@
         <v>5142</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3951,13 +3909,13 @@
         <v>8575</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3930,13 @@
         <v>3385</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3987,13 +3945,13 @@
         <v>2871</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -4230,10 +4188,10 @@
         <v>192</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -4242,10 +4200,10 @@
         <v>4183</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>196</v>
@@ -4257,13 +4215,13 @@
         <v>11524</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4242,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4299,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4314,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,7 +4328,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4382,13 +4340,13 @@
         <v>628</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4403,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4412,13 +4370,13 @@
         <v>628</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4391,13 @@
         <v>5098</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -4448,13 +4406,13 @@
         <v>2559</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -4463,13 +4421,13 @@
         <v>7656</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4442,13 @@
         <v>10303</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4499,13 +4457,13 @@
         <v>6424</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>26</v>
@@ -4514,13 +4472,13 @@
         <v>16727</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4493,13 @@
         <v>14592</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -4550,13 +4508,13 @@
         <v>11529</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
@@ -4565,13 +4523,13 @@
         <v>26121</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,13 +4544,13 @@
         <v>23808</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4601,13 +4559,13 @@
         <v>17370</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="M38" s="7">
         <v>67</v>
@@ -4616,13 +4574,13 @@
         <v>41178</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4595,13 @@
         <v>38153</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H39" s="7">
         <v>76</v>
@@ -4652,13 +4610,13 @@
         <v>48938</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M39" s="7">
         <v>134</v>
@@ -4667,13 +4625,13 @@
         <v>87091</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4646,13 @@
         <v>22191</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -4703,13 +4661,13 @@
         <v>28034</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>74</v>
@@ -4718,13 +4676,13 @@
         <v>50224</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4697,13 @@
         <v>7425</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -4754,13 +4712,13 @@
         <v>4808</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>17</v>
@@ -4769,13 +4727,13 @@
         <v>12233</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4748,13 @@
         <v>2490</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -4805,13 +4763,13 @@
         <v>2001</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -4820,13 +4778,13 @@
         <v>4491</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4840,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -4894,13 +4852,13 @@
         <v>1312</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -4909,13 +4867,13 @@
         <v>1790</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -4924,13 +4882,13 @@
         <v>3102</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4903,13 @@
         <v>4794</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H45" s="7">
         <v>4</v>
@@ -4960,13 +4918,13 @@
         <v>2937</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M45" s="7">
         <v>10</v>
@@ -4975,13 +4933,13 @@
         <v>7731</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4954,13 @@
         <v>9791</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H46" s="7">
         <v>15</v>
@@ -5011,13 +4969,13 @@
         <v>11299</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="M46" s="7">
         <v>29</v>
@@ -5026,13 +4984,13 @@
         <v>21090</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5005,13 @@
         <v>23821</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H47" s="7">
         <v>24</v>
@@ -5062,13 +5020,13 @@
         <v>18170</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M47" s="7">
         <v>57</v>
@@ -5077,13 +5035,13 @@
         <v>41991</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5056,13 @@
         <v>26443</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>51</v>
@@ -5113,13 +5071,13 @@
         <v>38776</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M48" s="7">
         <v>88</v>
@@ -5128,13 +5086,13 @@
         <v>65219</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5107,13 @@
         <v>43421</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H49" s="7">
         <v>72</v>
@@ -5164,13 +5122,13 @@
         <v>56122</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M49" s="7">
         <v>131</v>
@@ -5179,13 +5137,13 @@
         <v>99543</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5158,13 @@
         <v>26745</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H50" s="7">
         <v>33</v>
@@ -5215,13 +5173,13 @@
         <v>26074</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>327</v>
+        <v>118</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M50" s="7">
         <v>69</v>
@@ -5230,13 +5188,13 @@
         <v>52818</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5209,13 @@
         <v>7310</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="H51" s="7">
         <v>8</v>
@@ -5266,13 +5224,13 @@
         <v>6178</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M51" s="7">
         <v>17</v>
@@ -5281,13 +5239,13 @@
         <v>13488</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5260,13 @@
         <v>1390</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -5317,13 +5275,13 @@
         <v>763</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -5332,13 +5290,13 @@
         <v>2153</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5364,13 @@
         <v>2571</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="H54" s="7">
         <v>4</v>
@@ -5421,13 +5379,13 @@
         <v>3411</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M54" s="7">
         <v>8</v>
@@ -5436,13 +5394,13 @@
         <v>5982</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>348</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5415,13 @@
         <v>15542</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="H55" s="7">
         <v>16</v>
@@ -5475,10 +5433,10 @@
         <v>153</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="M55" s="7">
         <v>38</v>
@@ -5487,13 +5445,13 @@
         <v>26179</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5466,13 @@
         <v>24745</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H56" s="7">
         <v>38</v>
@@ -5526,10 +5484,10 @@
         <v>25</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M56" s="7">
         <v>75</v>
@@ -5541,10 +5499,10 @@
         <v>58</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5517,13 @@
         <v>66655</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H57" s="7">
         <v>75</v>
@@ -5574,13 +5532,13 @@
         <v>52349</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M57" s="7">
         <v>171</v>
@@ -5589,13 +5547,13 @@
         <v>119004</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5568,13 @@
         <v>112436</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H58" s="7">
         <v>158</v>
@@ -5625,13 +5583,13 @@
         <v>110922</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M58" s="7">
         <v>323</v>
@@ -5640,13 +5598,13 @@
         <v>223358</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5619,13 @@
         <v>203749</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>376</v>
+        <v>174</v>
       </c>
       <c r="H59" s="7">
         <v>314</v>
@@ -5676,13 +5634,13 @@
         <v>217895</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M59" s="7">
         <v>605</v>
@@ -5691,13 +5649,13 @@
         <v>421644</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5670,13 @@
         <v>104155</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H60" s="7">
         <v>159</v>
@@ -5727,13 +5685,13 @@
         <v>111284</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M60" s="7">
         <v>305</v>
@@ -5742,13 +5700,13 @@
         <v>215439</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5721,13 @@
         <v>24700</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H61" s="7">
         <v>24</v>
@@ -5778,10 +5736,10 @@
         <v>17146</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>395</v>
+        <v>207</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>396</v>
@@ -5796,10 +5754,10 @@
         <v>397</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>16</v>
+        <v>398</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>130</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5772,13 @@
         <v>4748</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H62" s="7">
         <v>5</v>
@@ -5829,10 +5787,10 @@
         <v>3706</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>401</v>
+        <v>124</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>403</v>
@@ -5844,13 +5802,13 @@
         <v>8454</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,7 +5864,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5927,7 +5885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51928076-0D1D-45C2-9907-58194D8CB05E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C0D35-D873-4EB4-AE45-348409B843C6}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5944,7 +5902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6057,7 +6015,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6087,7 +6045,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>408</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,7 +6096,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6168,13 +6126,13 @@
         <v>1133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6183,7 +6141,7 @@
         <v>1133</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
@@ -6210,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6255,13 +6213,13 @@
         <v>4201</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6270,13 +6228,13 @@
         <v>2074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -6285,10 +6243,10 @@
         <v>6276</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>428</v>
@@ -6360,10 +6318,10 @@
         <v>438</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6372,13 +6330,13 @@
         <v>4852</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -6387,7 +6345,7 @@
         <v>9095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>443</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>444</v>
@@ -6414,7 +6372,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6423,13 +6381,13 @@
         <v>570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6438,13 +6396,13 @@
         <v>1095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,7 +6423,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6495,7 +6453,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6536,7 @@
         <v>644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
@@ -6599,7 +6557,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6572,13 @@
         <v>768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6635,7 +6593,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6644,13 +6602,13 @@
         <v>768</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>456</v>
+        <v>148</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>457</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6623,13 @@
         <v>3525</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6680,13 +6638,13 @@
         <v>1364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6695,13 +6653,13 @@
         <v>4889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6674,13 @@
         <v>11150</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6731,13 +6689,13 @@
         <v>6281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -6746,13 +6704,13 @@
         <v>17431</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6725,13 @@
         <v>16949</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>228</v>
+        <v>469</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -6782,13 +6740,13 @@
         <v>15310</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -6797,13 +6755,13 @@
         <v>32259</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6776,13 @@
         <v>30707</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -6833,13 +6791,13 @@
         <v>31332</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -6848,13 +6806,13 @@
         <v>62039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>486</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>487</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6827,13 @@
         <v>27839</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6884,13 +6842,13 @@
         <v>22482</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -6899,13 +6857,13 @@
         <v>50321</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6878,13 @@
         <v>7410</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>498</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>499</v>
+        <v>302</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -6935,13 +6893,13 @@
         <v>5089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>501</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -6950,13 +6908,13 @@
         <v>12499</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +6929,13 @@
         <v>692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -6986,13 +6944,13 @@
         <v>1890</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -7001,13 +6959,13 @@
         <v>2582</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,7 +7021,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7081,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7090,13 +7048,13 @@
         <v>640</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7105,13 +7063,13 @@
         <v>640</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>507</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7084,13 @@
         <v>4850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7141,13 +7099,13 @@
         <v>1912</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>516</v>
+        <v>260</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -7156,13 +7114,13 @@
         <v>6763</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7135,13 @@
         <v>6395</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -7192,13 +7150,13 @@
         <v>2275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -7207,13 +7165,13 @@
         <v>8671</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>526</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7186,13 @@
         <v>14155</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>527</v>
+        <v>224</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7243,13 +7201,13 @@
         <v>13698</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>530</v>
+        <v>422</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="M27" s="7">
         <v>43</v>
@@ -7258,13 +7216,13 @@
         <v>27854</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7237,13 @@
         <v>36434</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -7294,13 +7252,13 @@
         <v>28925</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="M28" s="7">
         <v>101</v>
@@ -7309,13 +7267,13 @@
         <v>65358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>533</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7288,13 @@
         <v>57348</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H29" s="7">
         <v>80</v>
@@ -7345,13 +7303,13 @@
         <v>50350</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="M29" s="7">
         <v>165</v>
@@ -7360,13 +7318,13 @@
         <v>107698</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7339,13 @@
         <v>50689</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -7396,13 +7354,13 @@
         <v>41961</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>555</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
@@ -7411,13 +7369,13 @@
         <v>92650</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7390,13 @@
         <v>11497</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -7447,13 +7405,13 @@
         <v>12676</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>111</v>
+        <v>557</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -7462,13 +7420,13 @@
         <v>24173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7441,13 @@
         <v>590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7498,13 +7456,13 @@
         <v>2358</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>274</v>
+        <v>451</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -7513,13 +7471,13 @@
         <v>2949</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>570</v>
+        <v>154</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>453</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,7 +7533,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7587,13 +7545,13 @@
         <v>759</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -7608,7 +7566,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7617,13 +7575,13 @@
         <v>759</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>574</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7596,13 @@
         <v>1342</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>576</v>
+        <v>451</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -7659,7 +7617,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -7668,13 +7626,13 @@
         <v>1342</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>271</v>
+        <v>566</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>577</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7647,13 @@
         <v>6026</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>282</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -7704,13 +7662,13 @@
         <v>5985</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>581</v>
+        <v>396</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -7719,13 +7677,13 @@
         <v>12011</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7698,13 @@
         <v>11585</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>588</v>
+        <v>413</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -7755,13 +7713,13 @@
         <v>10818</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -7770,13 +7728,13 @@
         <v>22402</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7749,13 @@
         <v>22600</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="H38" s="7">
         <v>41</v>
@@ -7806,13 +7764,13 @@
         <v>23888</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M38" s="7">
         <v>73</v>
@@ -7821,13 +7779,13 @@
         <v>46488</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>93</v>
+        <v>391</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7800,13 @@
         <v>40346</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="H39" s="7">
         <v>61</v>
@@ -7857,13 +7815,13 @@
         <v>37053</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="M39" s="7">
         <v>122</v>
@@ -7872,13 +7830,13 @@
         <v>77399</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>175</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7851,13 @@
         <v>41420</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -7908,13 +7866,13 @@
         <v>41535</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="M40" s="7">
         <v>128</v>
@@ -7923,13 +7881,13 @@
         <v>82955</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7902,13 @@
         <v>10195</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="H41" s="7">
         <v>13</v>
@@ -7959,13 +7917,13 @@
         <v>8375</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>625</v>
+        <v>455</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M41" s="7">
         <v>28</v>
@@ -7974,13 +7932,13 @@
         <v>18569</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +7953,13 @@
         <v>807</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -8010,13 +7968,13 @@
         <v>2257</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -8025,13 +7983,13 @@
         <v>3064</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>344</v>
+        <v>618</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>404</v>
+        <v>199</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,7 +8045,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -8105,7 +8063,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -8114,13 +8072,13 @@
         <v>753</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -8129,13 +8087,13 @@
         <v>753</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8108,13 @@
         <v>3941</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -8165,13 +8123,13 @@
         <v>5465</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>519</v>
+        <v>627</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
@@ -8180,13 +8138,13 @@
         <v>9405</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>66</v>
+        <v>629</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>352</v>
+        <v>630</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8159,13 @@
         <v>9302</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>362</v>
+        <v>634</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -8216,13 +8174,13 @@
         <v>8014</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="M46" s="7">
         <v>24</v>
@@ -8231,13 +8189,13 @@
         <v>17317</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8210,13 @@
         <v>20277</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>651</v>
+        <v>217</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>423</v>
+        <v>640</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>652</v>
+        <v>94</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -8267,13 +8225,13 @@
         <v>18915</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M47" s="7">
         <v>54</v>
@@ -8282,13 +8240,13 @@
         <v>39192</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>592</v>
+        <v>644</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8261,13 @@
         <v>28117</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>659</v>
+        <v>92</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="H48" s="7">
         <v>29</v>
@@ -8318,13 +8276,13 @@
         <v>21256</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>661</v>
+        <v>228</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>663</v>
+        <v>529</v>
       </c>
       <c r="M48" s="7">
         <v>68</v>
@@ -8333,13 +8291,13 @@
         <v>49373</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>665</v>
+        <v>473</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>666</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8312,13 @@
         <v>49072</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="H49" s="7">
         <v>65</v>
@@ -8369,13 +8327,13 @@
         <v>48931</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="M49" s="7">
         <v>134</v>
@@ -8384,13 +8342,13 @@
         <v>98003</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8363,13 @@
         <v>27575</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="H50" s="7">
         <v>49</v>
@@ -8420,13 +8378,13 @@
         <v>36707</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>310</v>
+        <v>663</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="M50" s="7">
         <v>88</v>
@@ -8435,13 +8393,13 @@
         <v>64281</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8414,13 @@
         <v>13867</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="H51" s="7">
         <v>11</v>
@@ -8471,13 +8429,13 @@
         <v>7556</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>687</v>
+        <v>631</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>524</v>
+        <v>671</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="M51" s="7">
         <v>30</v>
@@ -8486,13 +8444,13 @@
         <v>21422</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>238</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8465,13 @@
         <v>5329</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="H52" s="7">
         <v>7</v>
@@ -8522,13 +8480,13 @@
         <v>4176</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="M52" s="7">
         <v>15</v>
@@ -8537,13 +8495,13 @@
         <v>9504</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>270</v>
+        <v>682</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8569,13 @@
         <v>759</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
@@ -8626,13 +8584,13 @@
         <v>2038</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>701</v>
+        <v>340</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -8641,13 +8599,13 @@
         <v>2797</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>402</v>
+        <v>687</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>703</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8620,13 @@
         <v>11876</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>75</v>
+        <v>633</v>
       </c>
       <c r="H55" s="7">
         <v>12</v>
@@ -8680,10 +8638,10 @@
         <v>69</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="M55" s="7">
         <v>30</v>
@@ -8692,13 +8650,13 @@
         <v>20289</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>453</v>
+        <v>331</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>344</v>
+        <v>690</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,13 +8671,13 @@
         <v>25249</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>394</v>
+        <v>681</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -8728,13 +8686,13 @@
         <v>18772</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>576</v>
+        <v>694</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="M56" s="7">
         <v>64</v>
@@ -8743,13 +8701,13 @@
         <v>44020</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,13 +8722,13 @@
         <v>57167</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>580</v>
+        <v>699</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="H57" s="7">
         <v>75</v>
@@ -8779,13 +8737,13 @@
         <v>50734</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="M57" s="7">
         <v>156</v>
@@ -8794,13 +8752,13 @@
         <v>107902</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>719</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,13 +8773,13 @@
         <v>108301</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="H58" s="7">
         <v>141</v>
@@ -8830,13 +8788,13 @@
         <v>91453</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>725</v>
+        <v>99</v>
       </c>
       <c r="M58" s="7">
         <v>295</v>
@@ -8845,13 +8803,13 @@
         <v>199754</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8866,13 +8824,13 @@
         <v>185925</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="H59" s="7">
         <v>261</v>
@@ -8881,13 +8839,13 @@
         <v>175672</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="M59" s="7">
         <v>530</v>
@@ -8896,13 +8854,13 @@
         <v>361597</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8875,13 @@
         <v>151766</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="H60" s="7">
         <v>221</v>
@@ -8932,13 +8890,13 @@
         <v>147537</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>319</v>
+        <v>726</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="M60" s="7">
         <v>436</v>
@@ -8947,13 +8905,13 @@
         <v>299302</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,13 +8926,13 @@
         <v>43494</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>747</v>
+        <v>693</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="H61" s="7">
         <v>54</v>
@@ -8983,13 +8941,13 @@
         <v>34264</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>750</v>
+        <v>698</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>217</v>
+        <v>735</v>
       </c>
       <c r="M61" s="7">
         <v>115</v>
@@ -8998,13 +8956,13 @@
         <v>77758</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9019,13 +8977,13 @@
         <v>7418</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>70</v>
+        <v>739</v>
       </c>
       <c r="H62" s="7">
         <v>18</v>
@@ -9034,13 +8992,13 @@
         <v>10681</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>82</v>
+        <v>740</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="M62" s="7">
         <v>29</v>
@@ -9049,13 +9007,13 @@
         <v>18099</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>346</v>
+        <v>742</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>757</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9111,7 +9069,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
